--- a/采购收支月表201908.xlsx
+++ b/采购收支月表201908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA79D22-A22B-4093-870B-F38882FEE6A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25BD8B-E82F-4721-A783-22913373FA18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>收款日期</t>
   </si>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罗祖军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喻放勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>候桢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +170,114 @@
   </si>
   <si>
     <t>乳酸菌蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水蜜桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰凉粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸角糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿豆沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜敏超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果、零时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙签牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄首元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐明博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺旺雪饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞放勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书亦烧仙草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿了吗会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +447,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -724,11 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,8 +867,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,15 +889,15 @@
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>12.11</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="2">
         <v>43677</v>
       </c>
@@ -796,7 +905,7 @@
         <v>28.5</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="2"/>
@@ -832,8 +941,8 @@
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="2">
         <v>43677</v>
       </c>
@@ -841,7 +950,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -853,13 +962,20 @@
         <v>100</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="2">
+        <v>43678</v>
+      </c>
+      <c r="H4" s="11">
+        <v>38.6</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -872,10 +988,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="2"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="2">
+        <v>43678</v>
+      </c>
+      <c r="H5" s="11">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -888,10 +1011,17 @@
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="13"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="2">
+        <v>43679</v>
+      </c>
+      <c r="H6" s="11">
+        <v>129</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -904,10 +1034,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="7"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="2">
+        <v>43682</v>
+      </c>
+      <c r="H7" s="11">
+        <v>74.88</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -920,10 +1057,17 @@
         <v>14</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="13"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="2">
+        <v>43682</v>
+      </c>
+      <c r="H8" s="11">
+        <v>29</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -936,10 +1080,17 @@
         <v>11</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="2">
+        <v>43682</v>
+      </c>
+      <c r="H9" s="11">
+        <v>46</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -953,10 +1104,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="2"/>
-      <c r="I10" s="7"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="2">
+        <v>43684</v>
+      </c>
+      <c r="H10" s="11">
+        <v>190.4</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -970,10 +1128,17 @@
         <v>9</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="2"/>
-      <c r="I11" s="7"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="2">
+        <v>43684</v>
+      </c>
+      <c r="H11" s="11">
+        <v>83.5</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -987,11 +1152,20 @@
         <v>13</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="18"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="2">
+        <v>43685</v>
+      </c>
+      <c r="H12" s="11">
+        <v>57.7</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1000,15 +1174,24 @@
       <c r="B13">
         <v>100</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="18"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="2">
+        <v>43685</v>
+      </c>
+      <c r="H13" s="11">
+        <v>47.94</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -1017,15 +1200,24 @@
       <c r="B14">
         <v>100</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="18"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="2">
+        <v>43689</v>
+      </c>
+      <c r="H14" s="11">
+        <v>92.81</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -1034,14 +1226,21 @@
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>31</v>
+      <c r="C15" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="13"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="2">
+        <v>43689</v>
+      </c>
+      <c r="H15" s="11">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -1050,14 +1249,21 @@
       <c r="B16">
         <v>100</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>32</v>
+      <c r="C16" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="7"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="2">
+        <v>43691</v>
+      </c>
+      <c r="H16" s="11">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1067,15 +1273,24 @@
       <c r="B17">
         <v>100</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>33</v>
+      <c r="C17" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="18"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="2">
+        <v>43691</v>
+      </c>
+      <c r="H17" s="11">
+        <v>51.83</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -1084,14 +1299,21 @@
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>34</v>
+      <c r="C18" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="7"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="2">
+        <v>43693</v>
+      </c>
+      <c r="H18" s="11">
+        <v>46.66</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -1101,14 +1323,21 @@
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>37</v>
+      <c r="C19" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="7"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="2">
+        <v>43693</v>
+      </c>
+      <c r="H19" s="11">
+        <v>83.3</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1118,14 +1347,21 @@
       <c r="B20">
         <v>100</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>38</v>
+      <c r="C20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="7"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="2">
+        <v>43693</v>
+      </c>
+      <c r="H20" s="11">
+        <v>230.6</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1135,25 +1371,35 @@
       <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="7"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="2">
+        <v>43693</v>
+      </c>
+      <c r="H21" s="11">
+        <v>99</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43677</v>
       </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
       <c r="C22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="2"/>
       <c r="I22" s="7"/>
       <c r="J22" s="20"/>
@@ -1162,11 +1408,14 @@
       <c r="A23" s="2">
         <v>43677</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="2"/>
       <c r="I23" s="7"/>
       <c r="J23" s="18"/>
@@ -1175,11 +1424,14 @@
       <c r="A24" s="2">
         <v>43677</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="2"/>
       <c r="I24" s="7"/>
       <c r="J24" s="18"/>
@@ -1188,12 +1440,15 @@
       <c r="A25" s="2">
         <v>43677</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>35</v>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="2"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1202,12 +1457,15 @@
       <c r="A26" s="2">
         <v>43677</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>36</v>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="2"/>
       <c r="I26" s="7"/>
       <c r="J26" s="18"/>
@@ -1216,11 +1474,14 @@
       <c r="A27" s="2">
         <v>43677</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="2"/>
       <c r="I27" s="7"/>
       <c r="J27" s="18"/>
@@ -1229,119 +1490,244 @@
       <c r="A28" s="2">
         <v>43677</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="2"/>
       <c r="I28" s="7"/>
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>43677</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>22</v>
+        <v>43685</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="2"/>
       <c r="I29" s="7"/>
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
-        <v>43677</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="A30" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B30" s="27">
+        <v>70</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="2"/>
       <c r="I30" s="7"/>
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="C31" s="23"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="A31" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B31" s="27">
+        <v>20</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="2"/>
       <c r="I31" s="7"/>
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="C32" s="24"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="A32" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B32" s="27">
+        <v>20</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="2"/>
       <c r="I32" s="7"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="4">
-        <f>SUM(B2:B31)</f>
-        <v>1912.1100000000001</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="12">
-        <f>SUM(H2:H32)</f>
-        <v>63.3</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="12">
-        <f>B33-H33</f>
-        <v>1848.8100000000002</v>
-      </c>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B33" s="27">
+        <v>120</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="21"/>
+      <c r="A34" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B34" s="27">
+        <v>50</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D35" s="3"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="3"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="3"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="A35" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B35" s="27">
+        <v>20</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B36" s="27">
+        <v>20</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="C37" s="25"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="C38" s="25"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4">
+        <f>SUM(B2:B36)</f>
+        <v>3032.11</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="12">
+        <f>SUM(H2:H32)</f>
+        <v>1512.12</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="12">
+        <f>B39-H39</f>
+        <v>1519.9900000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D41" s="3"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="3"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="3"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F37"/>
+    <mergeCell ref="E1:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/采购收支月表201908.xlsx
+++ b/采购收支月表201908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25BD8B-E82F-4721-A783-22913373FA18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F34CCF-1B6F-4C19-9719-8A73060348C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>收款日期</t>
   </si>
@@ -279,6 +279,73 @@
   <si>
     <t>饿了吗会员</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭脖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄酥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米锅巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚子茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼仔+面包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇淋补差价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪皇后（DQ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鸭子藕片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双皮奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芋圆烧仙草</t>
   </si>
 </sst>
 </file>
@@ -446,9 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +520,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -835,9 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,9 +1467,18 @@
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="2">
+        <v>43694</v>
+      </c>
+      <c r="H22" s="11">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -1416,8 +1492,15 @@
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="7"/>
+      <c r="G23" s="2">
+        <v>43696</v>
+      </c>
+      <c r="H23" s="11">
+        <v>13.8</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1432,8 +1515,15 @@
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="7"/>
+      <c r="G24" s="2">
+        <v>43696</v>
+      </c>
+      <c r="H24" s="11">
+        <v>39.6</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -1449,8 +1539,15 @@
       <c r="D25" s="3"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="7"/>
+      <c r="G25" s="2">
+        <v>43696</v>
+      </c>
+      <c r="H25" s="11">
+        <v>29.9</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1466,9 +1563,18 @@
       <c r="D26" s="3"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="18"/>
+      <c r="G26" s="2">
+        <v>43696</v>
+      </c>
+      <c r="H26" s="11">
+        <v>41.6</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -1482,9 +1588,18 @@
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="18"/>
+      <c r="G27" s="2">
+        <v>43696</v>
+      </c>
+      <c r="H27" s="11">
+        <v>46.94</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -1498,8 +1613,15 @@
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="7"/>
+      <c r="G28" s="2">
+        <v>43698</v>
+      </c>
+      <c r="H28" s="11">
+        <v>371</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1515,146 +1637,212 @@
       <c r="D29" s="3"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="7"/>
+      <c r="G29" s="2">
+        <v>43699</v>
+      </c>
+      <c r="H29" s="11">
+        <v>33.6</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="26">
+      <c r="A30" s="25">
         <v>43689</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>70</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
-      <c r="G30" s="2"/>
-      <c r="I30" s="7"/>
+      <c r="G30" s="2">
+        <v>43699</v>
+      </c>
+      <c r="H30" s="11">
+        <v>27.8</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <v>43689</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>20</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
-      <c r="G31" s="2"/>
-      <c r="I31" s="7"/>
+      <c r="G31" s="2">
+        <v>43699</v>
+      </c>
+      <c r="H31" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <v>43689</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>20</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="2"/>
-      <c r="I32" s="7"/>
+      <c r="G32" s="2">
+        <v>43700</v>
+      </c>
+      <c r="H32" s="11">
+        <v>240.4</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <v>43689</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="26">
         <v>120</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="2"/>
-      <c r="I33" s="7"/>
+      <c r="G33" s="2">
+        <v>43703</v>
+      </c>
+      <c r="H33" s="11">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="26">
+      <c r="A34" s="25">
         <v>43689</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="26">
         <v>50</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="7"/>
+      <c r="G34" s="2">
+        <v>43703</v>
+      </c>
+      <c r="H34" s="11">
+        <v>47.5</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="26">
+      <c r="A35" s="25">
         <v>43689</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="26">
         <v>20</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="2"/>
-      <c r="I35" s="7"/>
+      <c r="G35" s="2">
+        <v>43704</v>
+      </c>
+      <c r="H35" s="11">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="26">
+      <c r="A36" s="25">
         <v>43689</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <v>20</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="7"/>
+      <c r="G36" s="2">
+        <v>43707</v>
+      </c>
+      <c r="H36" s="11">
+        <v>359.1</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="2"/>
@@ -1662,8 +1850,18 @@
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="2">
+        <v>43698</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="2"/>
@@ -1675,8 +1873,8 @@
         <v>17</v>
       </c>
       <c r="B39" s="4">
-        <f>SUM(B2:B36)</f>
-        <v>3032.11</v>
+        <f>SUM(B2:B38)</f>
+        <v>3072.11</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1686,15 +1884,15 @@
         <v>23</v>
       </c>
       <c r="H39" s="12">
-        <f>SUM(H2:H32)</f>
-        <v>1512.12</v>
+        <f>SUM(H2:H38)</f>
+        <v>2891.0600000000004</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="12">
         <f>B39-H39</f>
-        <v>1519.9900000000002</v>
+        <v>181.04999999999973</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
